--- a/SalesManBotWithEmbeddings/SourcePromps/TrainingPhrases.xlsx
+++ b/SalesManBotWithEmbeddings/SourcePromps/TrainingPhrases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\davic\OneDrive\Documentos\GitRepositories\sales-man-bot\SalesManBotWithEmbeddings\SourcePromps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A95000D-7989-4FF5-A15C-13E8EB71128B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA08741D-F813-4455-94EC-68D7BF381C19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{1D0AC525-0C83-4D44-8C37-A74435C0B3A4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Promps</t>
   </si>
@@ -141,6 +141,9 @@
     <t>Vegetariana:
     - Descripción: Salsa de la casa, queso mozzarella, cebolla morada, chile verde, champiñones, aceitunas negras, tomate y albahaca.
     - Precios: $9.50 (8 porciones), $13.95 (12 Porciones)</t>
+  </si>
+  <si>
+    <t>No hay informacion para su peticion</t>
   </si>
 </sst>
 </file>
@@ -502,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{762917DD-F058-4537-A6DE-53158A5D667C}">
-  <dimension ref="A1:A21"/>
+  <dimension ref="A1:A22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -619,6 +622,11 @@
         <v>20</v>
       </c>
     </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
